--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -504,7 +504,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,7 +524,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -544,7 +544,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -564,7 +564,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -584,7 +584,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>family</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -604,7 +604,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -624,7 +624,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>family</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -644,7 +644,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -664,7 +664,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -684,7 +684,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -704,7 +704,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -724,7 +724,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -744,7 +744,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -764,7 +764,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -784,7 +784,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -824,7 +824,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -844,7 +844,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -864,7 +864,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -884,7 +884,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -904,7 +904,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -924,7 +924,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>time</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -944,7 +944,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -964,7 +964,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -984,7 +984,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>colors</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>colors</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>colors</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>colors</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>colors</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>numbers</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>numbers</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>numbers</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>numbers</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>numbers</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>numbers</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>numbers</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>numbers</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>numbers</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>verbs</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>verbs</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -2304,7 +2304,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>adjectives</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>adjectives</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>weather</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>adjectives</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>time</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>time</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>time</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -3124,7 +3124,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>time</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>greetings</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -3424,7 +3424,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>time</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -3664,7 +3664,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -3704,7 +3704,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -3844,7 +3844,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>weather</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -4064,7 +4064,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -4124,7 +4124,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>places</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -4184,7 +4184,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>other</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -4244,7 +4244,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -4324,7 +4324,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D196" t="n">
@@ -4384,7 +4384,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -4424,7 +4424,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -4484,7 +4484,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D202" t="n">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>body</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>other</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>time</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D216" t="n">
@@ -4784,7 +4784,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>numbers</t>
         </is>
       </c>
       <c r="D217" t="n">
@@ -4804,7 +4804,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>food</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -4824,7 +4824,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -4844,7 +4844,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>time</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D222" t="n">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="D223" t="n">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D228" t="n">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D231" t="n">
@@ -5084,7 +5084,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D232" t="n">
@@ -5104,7 +5104,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -5144,7 +5144,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D235" t="n">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D236" t="n">
@@ -5184,7 +5184,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>time</t>
         </is>
       </c>
       <c r="D237" t="n">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -5244,7 +5244,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D241" t="n">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>pronouns</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -5324,7 +5324,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -5344,7 +5344,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D245" t="n">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D247" t="n">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>time</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>adjectives</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D251" t="n">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>prepositions</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>conjunctions</t>
         </is>
       </c>
       <c r="D253" t="n">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nokia-my.sharepoint.com/personal/michalis_mochamet_nokia_com/Documents/Documents/italian-trainer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_28C60D92FA63FFCD49E8A6975DF45638F2D9E82F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA989182-8DE7-4C74-BE55-45FF4B12F029}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="11_28C60D92FA63FFCD49E8A6975DF45638F2D9E82F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C84CEC91-B26B-4033-8228-5D6E1A19D2E9}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="568">
   <si>
     <t>Italian</t>
   </si>
@@ -140,9 +139,6 @@
     <t>γραφείο</t>
   </si>
   <si>
-    <t>porta</t>
-  </si>
-  <si>
     <t>πόρτα</t>
   </si>
   <si>
@@ -434,9 +430,6 @@
     <t>sono / sto</t>
   </si>
   <si>
-    <t>είμαι (προσωρινά / γενικά)</t>
-  </si>
-  <si>
     <t>avere / hai / ho</t>
   </si>
   <si>
@@ -821,9 +814,6 @@
     <t>τέλος πάντων</t>
   </si>
   <si>
-    <t>così e così</t>
-  </si>
-  <si>
     <t>έτσι κι έτσι</t>
   </si>
   <si>
@@ -1013,12 +1003,6 @@
     <t>Αυτό το απόγευμα πάω σινεμά</t>
   </si>
   <si>
-    <t>Non che sole</t>
-  </si>
-  <si>
-    <t>Δεν έχει ήλιο</t>
-  </si>
-  <si>
     <t>per me</t>
   </si>
   <si>
@@ -1328,9 +1312,6 @@
     <t>suo</t>
   </si>
   <si>
-    <t>του (μου, σου, του)</t>
-  </si>
-  <si>
     <t>noccioline</t>
   </si>
   <si>
@@ -1463,9 +1444,6 @@
     <t>δεν είναι έτσι</t>
   </si>
   <si>
-    <t xml:space="preserve"> qualche volta</t>
-  </si>
-  <si>
     <t>καμμιά φορά</t>
   </si>
   <si>
@@ -1544,462 +1522,236 @@
     <t>τίποτα</t>
   </si>
   <si>
-    <t>Ιταλικά</t>
-  </si>
-  <si>
-    <t>Ελληνικά</t>
-  </si>
-  <si>
-    <t>rosa</t>
-  </si>
-  <si>
-    <t>τριαντάφυλλο</t>
-  </si>
-  <si>
-    <t>ghiaccio</t>
-  </si>
-  <si>
-    <t>πάγος</t>
-  </si>
-  <si>
-    <t>tanti</t>
-  </si>
-  <si>
-    <t>πολλά</t>
-  </si>
-  <si>
-    <t>sono</t>
-  </si>
-  <si>
     <t>είμαι</t>
   </si>
   <si>
-    <t>hai</t>
-  </si>
-  <si>
-    <t>έχεις</t>
-  </si>
-  <si>
-    <t>qui</t>
-  </si>
-  <si>
-    <t>εδώ</t>
-  </si>
-  <si>
-    <t>lì</t>
-  </si>
-  <si>
-    <t>bella / bene</t>
-  </si>
-  <si>
-    <t>ωραία</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>όχι</t>
-  </si>
-  <si>
-    <t>dove?</t>
-  </si>
-  <si>
-    <t>που;</t>
-  </si>
-  <si>
     <t>τώρα</t>
   </si>
   <si>
-    <t>πάμε</t>
-  </si>
-  <si>
-    <t>abbiamo</t>
-  </si>
-  <si>
-    <t>έχουμε</t>
-  </si>
-  <si>
-    <t>siete</t>
-  </si>
-  <si>
-    <t>είστε</t>
-  </si>
-  <si>
-    <t>hanno</t>
-  </si>
-  <si>
-    <t>έχουν</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>lavoro</t>
-  </si>
-  <si>
-    <t>anch’io</t>
-  </si>
-  <si>
-    <t>κι εγώ</t>
-  </si>
-  <si>
-    <t>però</t>
-  </si>
-  <si>
-    <t>όμως</t>
-  </si>
-  <si>
-    <t>perché</t>
-  </si>
-  <si>
-    <t>γιατί</t>
-  </si>
-  <si>
-    <t>sto</t>
-  </si>
-  <si>
-    <t>είμαι (προσωρινά)</t>
-  </si>
-  <si>
-    <t>ecco</t>
-  </si>
-  <si>
-    <t>να</t>
-  </si>
-  <si>
-    <t xml:space="preserve">per tornare                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ogni giorno                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">domande                      </t>
-  </si>
-  <si>
-    <t>ερωτήσεις</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chiamo                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">leggo                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vere                       </t>
-  </si>
-  <si>
-    <t>αληθές</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false                      </t>
-  </si>
-  <si>
-    <t>ψευδές</t>
-  </si>
-  <si>
-    <t xml:space="preserve">da fare                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">uscita                     </t>
-  </si>
-  <si>
-    <t>έξοδος</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stivale                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vestito                     </t>
-  </si>
-  <si>
-    <t>Uomo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conoscere </t>
-  </si>
-  <si>
-    <t xml:space="preserve">adatta </t>
-  </si>
-  <si>
-    <t>Il tempo</t>
-  </si>
-  <si>
-    <t>καιρός</t>
-  </si>
-  <si>
-    <t>piove</t>
-  </si>
-  <si>
-    <t>βρέχει</t>
-  </si>
-  <si>
-    <t>apri</t>
-  </si>
-  <si>
-    <t>άνοιξε</t>
-  </si>
-  <si>
-    <t>entra</t>
-  </si>
-  <si>
-    <t>μπες</t>
-  </si>
-  <si>
-    <t>bello</t>
-  </si>
-  <si>
-    <t>όμορφο</t>
-  </si>
-  <si>
-    <t>il padre</t>
-  </si>
-  <si>
-    <t>πατέρας</t>
-  </si>
-  <si>
-    <t>il madre</t>
-  </si>
-  <si>
-    <t>μητέρα</t>
-  </si>
-  <si>
-    <t>l’ orario</t>
-  </si>
-  <si>
-    <t>differente</t>
-  </si>
-  <si>
-    <t>cosa/che cosa</t>
-  </si>
-  <si>
-    <t>τι</t>
-  </si>
-  <si>
-    <t>attrazione</t>
-  </si>
-  <si>
-    <t>αξιοθέατα</t>
-  </si>
-  <si>
-    <t>il monumento</t>
-  </si>
-  <si>
-    <t>μνημεία</t>
-  </si>
-  <si>
-    <t>a me piace</t>
-  </si>
-  <si>
-    <t>εμένα μου αρέσει</t>
-  </si>
-  <si>
-    <t>sopratutto</t>
-  </si>
-  <si>
-    <t>κυρίως</t>
-  </si>
-  <si>
-    <t>possiamo</t>
-  </si>
-  <si>
-    <t>μπορούμε</t>
-  </si>
-  <si>
-    <t>εάν</t>
-  </si>
-  <si>
-    <t xml:space="preserve">θέλεις; </t>
-  </si>
-  <si>
-    <t>calcio</t>
-  </si>
-  <si>
-    <t>ποδόσφαιρο</t>
-  </si>
-  <si>
-    <t>preferisco</t>
-  </si>
-  <si>
-    <t>προτιμώ</t>
-  </si>
-  <si>
-    <t>si chiama</t>
-  </si>
-  <si>
-    <t>ονομάζεται</t>
-  </si>
-  <si>
-    <t>tempo</t>
-  </si>
-  <si>
-    <t>καιρός / χρόνος</t>
-  </si>
-  <si>
-    <t>ragione</t>
-  </si>
-  <si>
-    <t>δίκιο</t>
-  </si>
-  <si>
-    <t>senti</t>
-  </si>
-  <si>
-    <t>άκου</t>
-  </si>
-  <si>
-    <t>notizia</t>
-  </si>
-  <si>
-    <t>είδηση</t>
-  </si>
-  <si>
-    <t>cioè</t>
-  </si>
-  <si>
     <t>δηλαδή</t>
   </si>
   <si>
-    <t>apre</t>
-  </si>
-  <si>
-    <t>ανοίγει</t>
-  </si>
-  <si>
-    <t>chiude</t>
-  </si>
-  <si>
-    <t>κλείνει</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attrice                       </t>
-  </si>
-  <si>
-    <t>bene</t>
-  </si>
-  <si>
-    <t>καλά</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prende                 </t>
-  </si>
-  <si>
-    <t>παίρνει</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ritardo                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">anticipo               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">voglia                    </t>
-  </si>
-  <si>
-    <t>όρεξη</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mangiare            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">lunga                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sonno                   </t>
-  </si>
-  <si>
-    <t>ύπνο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dopo                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">giornata                </t>
-  </si>
-  <si>
-    <t>μέρα</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sorella                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">immagine               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">regalo                       </t>
-  </si>
-  <si>
-    <t>fai (fare)</t>
-  </si>
-  <si>
-    <t>κάνεις (κάνω)</t>
-  </si>
-  <si>
-    <t>pomeriggio</t>
-  </si>
-  <si>
-    <t>απόγευμα</t>
-  </si>
-  <si>
-    <t>finisco</t>
-  </si>
-  <si>
-    <t>zona</t>
-  </si>
-  <si>
-    <t>περιοχή</t>
-  </si>
-  <si>
-    <t>a tempo pieno</t>
-  </si>
-  <si>
-    <t>πλήρους απασχόλησης</t>
-  </si>
-  <si>
-    <t>parli</t>
-  </si>
-  <si>
-    <t>μιλάς</t>
-  </si>
-  <si>
-    <t>anche tu</t>
-  </si>
-  <si>
-    <t>και εσύ</t>
-  </si>
-  <si>
-    <t>πηγαίνουμε</t>
-  </si>
-  <si>
-    <t>τώρα/αμέσως</t>
-  </si>
-  <si>
-    <t>ma</t>
-  </si>
-  <si>
-    <t>αλλά</t>
-  </si>
-  <si>
-    <t xml:space="preserve">essere in ritardo </t>
-  </si>
-  <si>
-    <t>certo</t>
-  </si>
-  <si>
-    <t>non vedo l’ora</t>
-  </si>
-  <si>
-    <t>δεν βλέπω την ώρα (ανυπομονώ)</t>
-  </si>
-  <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>phrases</t>
+  </si>
+  <si>
+    <t>qualche volta</t>
+  </si>
+  <si>
+    <t>cosi e cosi</t>
+  </si>
+  <si>
+    <t>facile</t>
+  </si>
+  <si>
+    <t>diffuso</t>
+  </si>
+  <si>
+    <t>più</t>
+  </si>
+  <si>
+    <t>anche se</t>
+  </si>
+  <si>
+    <t>mettere</t>
+  </si>
+  <si>
+    <t>ad Atene</t>
+  </si>
+  <si>
+    <t>εξαπλωμένο</t>
+  </si>
+  <si>
+    <t>πιο</t>
+  </si>
+  <si>
+    <t>ακόμα κι αν</t>
+  </si>
+  <si>
+    <t>βάζω</t>
+  </si>
+  <si>
+    <t>στην Αθήνα</t>
+  </si>
+  <si>
+    <t>εύκολο</t>
+  </si>
+  <si>
+    <t>του</t>
+  </si>
+  <si>
+    <t>difficile</t>
+  </si>
+  <si>
+    <t>δύσκολο</t>
+  </si>
+  <si>
+    <t>cioe</t>
+  </si>
+  <si>
+    <t>ancora</t>
+  </si>
+  <si>
+    <t>ακόμα</t>
+  </si>
+  <si>
+    <t>purtroppo porta</t>
+  </si>
+  <si>
+    <t>δυστύχως φαίρνει</t>
+  </si>
+  <si>
+    <t>fidanzanto</t>
+  </si>
+  <si>
+    <t>αγόρι</t>
+  </si>
+  <si>
+    <t>aspetto</t>
+  </si>
+  <si>
+    <t>περιμένω</t>
+  </si>
+  <si>
+    <t>scendi</t>
+  </si>
+  <si>
+    <t>κατέβα</t>
+  </si>
+  <si>
+    <t>straniera</t>
+  </si>
+  <si>
+    <t>ξένη</t>
+  </si>
+  <si>
+    <t>bottiglia d' acqua</t>
+  </si>
+  <si>
+    <t>μπουκάλι νερό</t>
+  </si>
+  <si>
+    <t>forse</t>
+  </si>
+  <si>
+    <t>mano</t>
+  </si>
+  <si>
+    <t>χέρι</t>
+  </si>
+  <si>
+    <t>stella</t>
+  </si>
+  <si>
+    <t>αστέρι</t>
+  </si>
+  <si>
+    <t>penna</t>
+  </si>
+  <si>
+    <t>στυλό</t>
+  </si>
+  <si>
+    <t>abiti</t>
+  </si>
+  <si>
+    <t>μένεις</t>
+  </si>
+  <si>
+    <t>τα λεμε</t>
+  </si>
+  <si>
+    <t>a presto</t>
+  </si>
+  <si>
+    <t>comodo</t>
+  </si>
+  <si>
+    <t>βολικό</t>
+  </si>
+  <si>
+    <t>devo</t>
+  </si>
+  <si>
+    <t>πρέπει</t>
+  </si>
+  <si>
+    <t>diverente</t>
+  </si>
+  <si>
+    <t>χαριτωμένο</t>
+  </si>
+  <si>
+    <t>giardino</t>
+  </si>
+  <si>
+    <t>κήπος</t>
+  </si>
+  <si>
+    <t>ho paura</t>
+  </si>
+  <si>
+    <t>φοβάμαι</t>
+  </si>
+  <si>
+    <t>supera</t>
+  </si>
+  <si>
+    <t>ξεπερνώ</t>
+  </si>
+  <si>
+    <t>costellazione</t>
+  </si>
+  <si>
+    <t>αστερισμός</t>
+  </si>
+  <si>
+    <t>arance</t>
+  </si>
+  <si>
+    <t>πορτοκάλια</t>
+  </si>
+  <si>
+    <t>pianeti</t>
+  </si>
+  <si>
+    <t>πλανήτες</t>
+  </si>
+  <si>
+    <t>non che sole</t>
+  </si>
+  <si>
+    <t>δεν έχει ήλιο</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0A0A0A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2027,8 +1779,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2368,42 +2125,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D253"/>
+  <dimension ref="A1:D283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.59765625" customWidth="1"/>
+    <col min="1" max="1" width="32.796875" customWidth="1"/>
+    <col min="2" max="2" width="43.3984375" customWidth="1"/>
     <col min="3" max="3" width="18.8984375" customWidth="1"/>
     <col min="4" max="4" width="14.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>656</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>547</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>546</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2411,13 +2169,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2425,13 +2183,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
+        <v>544</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>545</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -2439,27 +2197,27 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
+        <v>512</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>220</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -2467,13 +2225,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>501</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2481,13 +2239,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2495,13 +2253,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>479</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>480</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -2509,27 +2267,27 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>427</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>428</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -2537,13 +2295,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -2551,13 +2309,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
+        <v>510</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>515</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -2565,13 +2323,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
+        <v>523</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>524</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -2579,13 +2337,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -2593,13 +2351,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>365</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>366</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -2607,13 +2365,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>410</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>411</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -2621,13 +2379,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>336</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -2635,13 +2393,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>357</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>358</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -2649,13 +2407,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2663,27 +2421,27 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
+        <v>562</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>563</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2691,13 +2449,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>184</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -2705,13 +2463,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
+        <v>529</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>530</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2719,13 +2477,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2733,10 +2491,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
@@ -2747,13 +2505,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>368</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>369</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>504</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2761,13 +2519,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>443</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>444</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2775,13 +2533,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>370</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>371</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>372</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2789,13 +2547,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>209</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2803,13 +2561,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>203</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2817,13 +2575,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>303</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>304</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2831,27 +2589,27 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2859,13 +2617,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -2873,27 +2631,27 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" t="s">
-        <v>80</v>
+        <v>535</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -2901,13 +2659,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -2915,13 +2673,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>301</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>302</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -2929,13 +2687,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>214</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -2943,13 +2701,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>423</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>424</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -2957,13 +2715,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>418</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>419</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>420</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -2971,13 +2729,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>313</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>314</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -2985,13 +2743,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>448</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>449</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -2999,13 +2757,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>204</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -3013,41 +2771,41 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>197</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -3055,13 +2813,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -3069,13 +2827,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -3083,13 +2841,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>172</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -3097,10 +2855,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>359</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>360</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3111,41 +2869,41 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" t="s">
-        <v>117</v>
+        <v>522</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>502</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -3153,13 +2911,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>349</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>350</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -3167,13 +2925,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" t="s">
-        <v>121</v>
+        <v>548</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>549</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -3181,13 +2939,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -3195,13 +2953,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>262</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>263</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -3209,13 +2967,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>262</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>461</v>
       </c>
       <c r="C60" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -3223,13 +2981,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>450</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>451</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -3237,13 +2995,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>172</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -3251,13 +3009,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -3265,13 +3023,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>441</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>442</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -3279,10 +3037,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>506</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>264</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
@@ -3293,10 +3051,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>138</v>
-      </c>
-      <c r="B66" t="s">
-        <v>139</v>
+        <v>560</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>561</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
@@ -3307,13 +3065,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -3321,13 +3079,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>281</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -3335,13 +3093,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>345</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>346</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -3349,13 +3107,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -3363,13 +3121,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>363</v>
       </c>
       <c r="B71" t="s">
-        <v>149</v>
+        <v>364</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -3377,10 +3135,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>363</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>373</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3391,13 +3149,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>152</v>
+        <v>271</v>
       </c>
       <c r="B73" t="s">
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -3405,13 +3163,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>154</v>
-      </c>
-      <c r="B74" t="s">
-        <v>155</v>
+        <v>550</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>551</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -3419,13 +3177,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>156</v>
+        <v>458</v>
       </c>
       <c r="B75" t="s">
-        <v>157</v>
+        <v>459</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>504</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -3433,13 +3191,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>158</v>
+        <v>494</v>
       </c>
       <c r="B76" t="s">
-        <v>159</v>
+        <v>495</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -3447,66 +3205,66 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="B77" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="B79" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="B80" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>168</v>
-      </c>
-      <c r="B81" t="s">
-        <v>169</v>
+      <c r="A81" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>521</v>
       </c>
       <c r="C81" t="s">
         <v>8</v>
@@ -3517,13 +3275,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>170</v>
-      </c>
-      <c r="B82" t="s">
-        <v>171</v>
+        <v>508</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>513</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D82">
         <v>2</v>
@@ -3531,13 +3289,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>172</v>
-      </c>
-      <c r="B83" t="s">
-        <v>173</v>
+        <v>552</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>553</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>8</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -3545,13 +3303,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="B84" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D84">
         <v>2</v>
@@ -3559,24 +3317,24 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="B85" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>179</v>
+        <v>386</v>
       </c>
       <c r="B86" t="s">
-        <v>180</v>
+        <v>387</v>
       </c>
       <c r="C86" t="s">
         <v>8</v>
@@ -3587,13 +3345,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>181</v>
+        <v>254</v>
       </c>
       <c r="B87" t="s">
-        <v>182</v>
+        <v>255</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
+        <v>8</v>
       </c>
       <c r="D87">
         <v>2</v>
@@ -3601,13 +3359,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="B88" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -3615,24 +3373,24 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="B90" t="s">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="C90" t="s">
         <v>8</v>
@@ -3643,13 +3401,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="B91" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>172</v>
       </c>
       <c r="D91">
         <v>2</v>
@@ -3657,27 +3415,27 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="B92" t="s">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="B93" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="C93" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -3685,13 +3443,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="B94" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="C94" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D94">
         <v>2</v>
@@ -3699,13 +3457,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>196</v>
+        <v>341</v>
       </c>
       <c r="B95" t="s">
-        <v>197</v>
+        <v>342</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>504</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -3713,13 +3471,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>198</v>
+        <v>343</v>
       </c>
       <c r="B96" t="s">
-        <v>199</v>
+        <v>344</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>504</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -3727,13 +3485,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>200</v>
+        <v>286</v>
       </c>
       <c r="B97" t="s">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -3741,13 +3499,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>202</v>
-      </c>
-      <c r="B98" t="s">
-        <v>203</v>
+        <v>507</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>518</v>
       </c>
       <c r="C98" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D98">
         <v>2</v>
@@ -3755,24 +3513,24 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>204</v>
+        <v>319</v>
       </c>
       <c r="B99" t="s">
-        <v>205</v>
+        <v>320</v>
       </c>
       <c r="C99" t="s">
         <v>8</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>206</v>
+        <v>390</v>
       </c>
       <c r="B100" t="s">
-        <v>207</v>
+        <v>391</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3783,13 +3541,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>208</v>
-      </c>
-      <c r="B101" t="s">
-        <v>209</v>
+        <v>527</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>528</v>
       </c>
       <c r="C101" t="s">
-        <v>210</v>
+        <v>8</v>
       </c>
       <c r="D101">
         <v>2</v>
@@ -3797,13 +3555,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>211</v>
+        <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -3811,10 +3569,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="B103" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3825,13 +3583,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="B104" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="C104" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -3839,13 +3597,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>218</v>
-      </c>
-      <c r="B105" t="s">
-        <v>219</v>
+        <v>537</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="C105" t="s">
-        <v>210</v>
+        <v>8</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -3853,27 +3611,27 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>222</v>
+        <v>434</v>
       </c>
       <c r="B107" t="s">
-        <v>223</v>
+        <v>435</v>
       </c>
       <c r="C107" t="s">
-        <v>5</v>
+        <v>436</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -3881,13 +3639,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>224</v>
+        <v>437</v>
       </c>
       <c r="B108" t="s">
-        <v>225</v>
+        <v>438</v>
       </c>
       <c r="C108" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -3895,24 +3653,24 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>226</v>
+        <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>227</v>
+        <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>228</v>
+        <v>388</v>
       </c>
       <c r="B110" t="s">
-        <v>229</v>
+        <v>389</v>
       </c>
       <c r="C110" t="s">
         <v>8</v>
@@ -3923,13 +3681,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>230</v>
+        <v>398</v>
       </c>
       <c r="B111" t="s">
-        <v>231</v>
+        <v>399</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D111">
         <v>2</v>
@@ -3937,13 +3695,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>232</v>
-      </c>
-      <c r="B112" t="s">
-        <v>233</v>
+        <v>398</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="C112" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D112">
         <v>2</v>
@@ -3951,24 +3709,24 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>234</v>
+        <v>72</v>
       </c>
       <c r="B113" t="s">
-        <v>235</v>
+        <v>73</v>
       </c>
       <c r="C113" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>236</v>
-      </c>
-      <c r="B114" t="s">
-        <v>237</v>
+        <v>554</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>555</v>
       </c>
       <c r="C114" t="s">
         <v>8</v>
@@ -3979,13 +3737,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="B115" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="C115" t="s">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="D115">
         <v>2</v>
@@ -3993,13 +3751,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>240</v>
+        <v>298</v>
       </c>
       <c r="B116" t="s">
-        <v>241</v>
+        <v>299</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="D116">
         <v>2</v>
@@ -4007,13 +3765,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="B117" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="D117">
         <v>2</v>
@@ -4027,7 +3785,7 @@
         <v>245</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -4035,13 +3793,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>246</v>
+        <v>311</v>
       </c>
       <c r="B119" t="s">
-        <v>247</v>
+        <v>312</v>
       </c>
       <c r="C119" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -4049,10 +3807,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>248</v>
+        <v>331</v>
       </c>
       <c r="B120" t="s">
-        <v>249</v>
+        <v>332</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -4063,10 +3821,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>250</v>
-      </c>
-      <c r="B121" t="s">
-        <v>251</v>
+        <v>556</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>557</v>
       </c>
       <c r="C121" t="s">
         <v>8</v>
@@ -4077,41 +3835,41 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>252</v>
+        <v>317</v>
       </c>
       <c r="B122" t="s">
-        <v>253</v>
+        <v>318</v>
       </c>
       <c r="C122" t="s">
-        <v>53</v>
+        <v>504</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>254</v>
+        <v>321</v>
       </c>
       <c r="B123" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>504</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>256</v>
+        <v>492</v>
       </c>
       <c r="B124" t="s">
-        <v>257</v>
+        <v>493</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -4119,13 +3877,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>258</v>
+        <v>488</v>
       </c>
       <c r="B125" t="s">
-        <v>259</v>
+        <v>489</v>
       </c>
       <c r="C125" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -4133,10 +3891,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>260</v>
+        <v>351</v>
       </c>
       <c r="B126" t="s">
-        <v>261</v>
+        <v>352</v>
       </c>
       <c r="C126" t="s">
         <v>8</v>
@@ -4147,10 +3905,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>262</v>
+        <v>46</v>
       </c>
       <c r="B127" t="s">
-        <v>263</v>
+        <v>47</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -4161,13 +3919,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>264</v>
+        <v>152</v>
       </c>
       <c r="B128" t="s">
-        <v>265</v>
+        <v>153</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="D128">
         <v>2</v>
@@ -4175,13 +3933,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>266</v>
+        <v>460</v>
       </c>
       <c r="B129" t="s">
-        <v>267</v>
+        <v>461</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D129">
         <v>2</v>
@@ -4189,10 +3947,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
+        <v>267</v>
+      </c>
+      <c r="B130" t="s">
         <v>268</v>
-      </c>
-      <c r="B130" t="s">
-        <v>269</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -4203,24 +3961,24 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>270</v>
+        <v>35</v>
       </c>
       <c r="B131" t="s">
-        <v>271</v>
+        <v>36</v>
       </c>
       <c r="C131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>272</v>
+        <v>381</v>
       </c>
       <c r="B132" t="s">
-        <v>273</v>
+        <v>382</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -4231,10 +3989,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>274</v>
+        <v>339</v>
       </c>
       <c r="B133" t="s">
-        <v>251</v>
+        <v>340</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -4245,13 +4003,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="B134" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>215</v>
       </c>
       <c r="D134">
         <v>2</v>
@@ -4259,13 +4017,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>277</v>
+        <v>367</v>
       </c>
       <c r="B135" t="s">
-        <v>278</v>
+        <v>39</v>
       </c>
       <c r="C135" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D135">
         <v>2</v>
@@ -4273,27 +4031,27 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>279</v>
+        <v>63</v>
       </c>
       <c r="B136" t="s">
-        <v>280</v>
+        <v>64</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>281</v>
+        <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>282</v>
+        <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>5</v>
+        <v>172</v>
       </c>
       <c r="D137">
         <v>2</v>
@@ -4301,27 +4059,27 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>258</v>
+        <v>323</v>
       </c>
       <c r="B138" t="s">
-        <v>259</v>
+        <v>324</v>
       </c>
       <c r="C138" t="s">
-        <v>53</v>
+        <v>504</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>283</v>
+        <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>284</v>
+        <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
+        <v>172</v>
       </c>
       <c r="D139">
         <v>2</v>
@@ -4329,10 +4087,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>285</v>
+        <v>402</v>
       </c>
       <c r="B140" t="s">
-        <v>286</v>
+        <v>403</v>
       </c>
       <c r="C140" t="s">
         <v>8</v>
@@ -4343,13 +4101,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>287</v>
+        <v>376</v>
       </c>
       <c r="B141" t="s">
-        <v>288</v>
+        <v>377</v>
       </c>
       <c r="C141" t="s">
-        <v>5</v>
+        <v>378</v>
       </c>
       <c r="D141">
         <v>2</v>
@@ -4357,13 +4115,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>289</v>
+        <v>421</v>
       </c>
       <c r="B142" t="s">
-        <v>290</v>
+        <v>422</v>
       </c>
       <c r="C142" t="s">
-        <v>5</v>
+        <v>378</v>
       </c>
       <c r="D142">
         <v>2</v>
@@ -4371,13 +4129,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="B143" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D143">
         <v>2</v>
@@ -4385,10 +4143,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>293</v>
+        <v>232</v>
       </c>
       <c r="B144" t="s">
-        <v>294</v>
+        <v>233</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4399,10 +4157,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>295</v>
+        <v>232</v>
       </c>
       <c r="B145" t="s">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4413,13 +4171,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>297</v>
+        <v>142</v>
       </c>
       <c r="B146" t="s">
-        <v>298</v>
+        <v>143</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="D146">
         <v>2</v>
@@ -4427,10 +4185,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>299</v>
-      </c>
-      <c r="B147" t="s">
-        <v>300</v>
+        <v>538</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>539</v>
       </c>
       <c r="C147" t="s">
         <v>8</v>
@@ -4441,27 +4199,27 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>301</v>
+        <v>74</v>
       </c>
       <c r="B148" t="s">
-        <v>302</v>
+        <v>75</v>
       </c>
       <c r="C148" t="s">
-        <v>303</v>
+        <v>8</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>304</v>
+        <v>432</v>
       </c>
       <c r="B149" t="s">
-        <v>305</v>
+        <v>433</v>
       </c>
       <c r="C149" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="D149">
         <v>2</v>
@@ -4469,13 +4227,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>306</v>
-      </c>
-      <c r="B150" t="s">
-        <v>307</v>
+        <v>511</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="D150">
         <v>2</v>
@@ -4483,13 +4241,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>308</v>
+        <v>475</v>
       </c>
       <c r="B151" t="s">
-        <v>309</v>
+        <v>476</v>
       </c>
       <c r="C151" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D151">
         <v>2</v>
@@ -4497,13 +4255,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B152" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D152">
         <v>2</v>
@@ -4511,10 +4269,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B153" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C153" t="s">
         <v>8</v>
@@ -4525,13 +4283,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>314</v>
+        <v>425</v>
       </c>
       <c r="B154" t="s">
-        <v>315</v>
+        <v>426</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D154">
         <v>2</v>
@@ -4539,13 +4297,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>316</v>
+        <v>384</v>
       </c>
       <c r="B155" t="s">
-        <v>317</v>
+        <v>385</v>
       </c>
       <c r="C155" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D155">
         <v>2</v>
@@ -4553,13 +4311,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="B156" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D156">
         <v>2</v>
@@ -4567,13 +4325,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="B157" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D157">
         <v>2</v>
@@ -4581,24 +4339,24 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>322</v>
+        <v>76</v>
       </c>
       <c r="B158" t="s">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="C158" t="s">
         <v>8</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>324</v>
+        <v>498</v>
       </c>
       <c r="B159" t="s">
-        <v>325</v>
+        <v>499</v>
       </c>
       <c r="C159" t="s">
         <v>8</v>
@@ -4609,13 +4367,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>326</v>
+        <v>430</v>
       </c>
       <c r="B160" t="s">
-        <v>327</v>
+        <v>431</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D160">
         <v>2</v>
@@ -4623,27 +4381,27 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>328</v>
+        <v>566</v>
       </c>
       <c r="B161" t="s">
-        <v>329</v>
+        <v>567</v>
       </c>
       <c r="C161" t="s">
-        <v>34</v>
+        <v>504</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>330</v>
+        <v>472</v>
       </c>
       <c r="B162" t="s">
-        <v>331</v>
+        <v>473</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>504</v>
       </c>
       <c r="D162">
         <v>2</v>
@@ -4651,13 +4409,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="B163" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="C163" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D163">
         <v>2</v>
@@ -4665,27 +4423,27 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>334</v>
+        <v>97</v>
       </c>
       <c r="B164" t="s">
-        <v>335</v>
+        <v>98</v>
       </c>
       <c r="C164" t="s">
         <v>8</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>336</v>
+        <v>22</v>
       </c>
       <c r="B165" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="C165" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D165">
         <v>2</v>
@@ -4693,13 +4451,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="B166" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="C166" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D166">
         <v>2</v>
@@ -4707,13 +4465,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>340</v>
+        <v>256</v>
       </c>
       <c r="B167" t="s">
-        <v>341</v>
+        <v>257</v>
       </c>
       <c r="C167" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D167">
         <v>2</v>
@@ -4721,13 +4479,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>342</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
-        <v>343</v>
+        <v>257</v>
       </c>
       <c r="C168" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D168">
         <v>2</v>
@@ -4735,13 +4493,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>344</v>
+        <v>464</v>
       </c>
       <c r="B169" t="s">
-        <v>345</v>
+        <v>465</v>
       </c>
       <c r="C169" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D169">
         <v>2</v>
@@ -4749,27 +4507,27 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>346</v>
+        <v>50</v>
       </c>
       <c r="B170" t="s">
-        <v>347</v>
+        <v>51</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>348</v>
+        <v>190</v>
       </c>
       <c r="B171" t="s">
-        <v>349</v>
+        <v>191</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="D171">
         <v>2</v>
@@ -4777,13 +4535,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="B172" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="C172" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D172">
         <v>2</v>
@@ -4791,24 +4549,24 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>352</v>
+        <v>95</v>
       </c>
       <c r="B173" t="s">
-        <v>353</v>
+        <v>96</v>
       </c>
       <c r="C173" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="B174" t="s">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="C174" t="s">
         <v>8</v>
@@ -4819,13 +4577,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>356</v>
+        <v>490</v>
       </c>
       <c r="B175" t="s">
-        <v>357</v>
+        <v>491</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>504</v>
       </c>
       <c r="D175">
         <v>2</v>
@@ -4833,13 +4591,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>358</v>
+        <v>170</v>
       </c>
       <c r="B176" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
       <c r="C176" t="s">
-        <v>5</v>
+        <v>172</v>
       </c>
       <c r="D176">
         <v>2</v>
@@ -4847,13 +4605,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>360</v>
+        <v>173</v>
       </c>
       <c r="B177" t="s">
-        <v>361</v>
+        <v>174</v>
       </c>
       <c r="C177" t="s">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="D177">
         <v>2</v>
@@ -4861,13 +4619,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>362</v>
-      </c>
-      <c r="B178" t="s">
-        <v>363</v>
+        <v>542</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>543</v>
       </c>
       <c r="C178" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D178">
         <v>2</v>
@@ -4875,13 +4633,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>364</v>
+        <v>242</v>
       </c>
       <c r="B179" t="s">
-        <v>365</v>
+        <v>243</v>
       </c>
       <c r="C179" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D179">
         <v>2</v>
@@ -4889,13 +4647,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B180" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="C180" t="s">
-        <v>217</v>
+        <v>5</v>
       </c>
       <c r="D180">
         <v>2</v>
@@ -4903,10 +4661,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="B181" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4917,13 +4675,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>370</v>
-      </c>
-      <c r="B182" t="s">
-        <v>371</v>
+        <v>564</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>565</v>
       </c>
       <c r="C182" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D182">
         <v>2</v>
@@ -4931,13 +4689,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="B183" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D183">
         <v>2</v>
@@ -4945,24 +4703,24 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>372</v>
-      </c>
-      <c r="B184" t="s">
-        <v>40</v>
+        <v>509</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>514</v>
       </c>
       <c r="C184" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="B185" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4973,13 +4731,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="B186" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="C186" t="s">
-        <v>377</v>
+        <v>8</v>
       </c>
       <c r="D186">
         <v>2</v>
@@ -4987,13 +4745,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="B187" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="C187" t="s">
-        <v>5</v>
+        <v>504</v>
       </c>
       <c r="D187">
         <v>2</v>
@@ -5001,13 +4759,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>379</v>
+        <v>296</v>
       </c>
       <c r="B188" t="s">
-        <v>380</v>
+        <v>297</v>
       </c>
       <c r="C188" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D188">
         <v>2</v>
@@ -5015,13 +4773,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>381</v>
+        <v>164</v>
       </c>
       <c r="B189" t="s">
-        <v>382</v>
+        <v>165</v>
       </c>
       <c r="C189" t="s">
-        <v>383</v>
+        <v>172</v>
       </c>
       <c r="D189">
         <v>2</v>
@@ -5029,13 +4787,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>384</v>
+        <v>240</v>
       </c>
       <c r="B190" t="s">
-        <v>385</v>
+        <v>241</v>
       </c>
       <c r="C190" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D190">
         <v>2</v>
@@ -5043,10 +4801,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B191" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -5057,13 +4815,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B192" t="s">
-        <v>388</v>
+        <v>293</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D192">
         <v>2</v>
@@ -5071,13 +4829,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>389</v>
+        <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>390</v>
+        <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="D193">
         <v>2</v>
@@ -5085,10 +4843,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B194" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C194" t="s">
         <v>8</v>
@@ -5099,10 +4857,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>393</v>
-      </c>
-      <c r="B195" t="s">
-        <v>394</v>
+        <v>525</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>526</v>
       </c>
       <c r="C195" t="s">
         <v>8</v>
@@ -5113,13 +4871,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="B196" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="C196" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D196">
         <v>2</v>
@@ -5127,13 +4885,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>397</v>
+        <v>505</v>
       </c>
       <c r="B197" t="s">
-        <v>398</v>
+        <v>474</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>504</v>
       </c>
       <c r="D197">
         <v>2</v>
@@ -5141,10 +4899,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>399</v>
+        <v>290</v>
       </c>
       <c r="B198" t="s">
-        <v>400</v>
+        <v>291</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -5155,10 +4913,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>401</v>
+        <v>276</v>
       </c>
       <c r="B199" t="s">
-        <v>402</v>
+        <v>277</v>
       </c>
       <c r="C199" t="s">
         <v>8</v>
@@ -5169,10 +4927,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>403</v>
+        <v>278</v>
       </c>
       <c r="B200" t="s">
-        <v>404</v>
+        <v>279</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -5183,27 +4941,27 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>405</v>
+        <v>127</v>
       </c>
       <c r="B201" t="s">
-        <v>406</v>
+        <v>128</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B202" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D202">
         <v>2</v>
@@ -5211,66 +4969,66 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>409</v>
+        <v>107</v>
       </c>
       <c r="B203" t="s">
-        <v>410</v>
+        <v>108</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>411</v>
+        <v>87</v>
       </c>
       <c r="B204" t="s">
-        <v>412</v>
+        <v>88</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D204">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>413</v>
+        <v>325</v>
       </c>
       <c r="B205" t="s">
-        <v>414</v>
+        <v>326</v>
       </c>
       <c r="C205" t="s">
-        <v>5</v>
+        <v>504</v>
       </c>
       <c r="D205">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>415</v>
+        <v>109</v>
       </c>
       <c r="B206" t="s">
-        <v>416</v>
+        <v>110</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
       </c>
       <c r="D206">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>417</v>
+        <v>44</v>
       </c>
       <c r="B207" t="s">
-        <v>418</v>
+        <v>45</v>
       </c>
       <c r="C207" t="s">
         <v>8</v>
@@ -5281,13 +5039,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>419</v>
+        <v>496</v>
       </c>
       <c r="B208" t="s">
-        <v>420</v>
+        <v>497</v>
       </c>
       <c r="C208" t="s">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="D208">
         <v>2</v>
@@ -5295,13 +5053,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>421</v>
+        <v>166</v>
       </c>
       <c r="B209" t="s">
-        <v>422</v>
+        <v>167</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="D209">
         <v>2</v>
@@ -5309,13 +5067,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>423</v>
+        <v>481</v>
       </c>
       <c r="B210" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C210" t="s">
-        <v>425</v>
+        <v>34</v>
       </c>
       <c r="D210">
         <v>2</v>
@@ -5323,13 +5081,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="B211" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="C211" t="s">
-        <v>383</v>
+        <v>34</v>
       </c>
       <c r="D211">
         <v>2</v>
@@ -5337,10 +5095,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>428</v>
+        <v>337</v>
       </c>
       <c r="B212" t="s">
-        <v>429</v>
+        <v>338</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -5351,27 +5109,27 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>430</v>
+        <v>65</v>
       </c>
       <c r="B213" t="s">
-        <v>431</v>
+        <v>66</v>
       </c>
       <c r="C213" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>432</v>
+        <v>200</v>
       </c>
       <c r="B214" t="s">
-        <v>433</v>
+        <v>201</v>
       </c>
       <c r="C214" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="D214">
         <v>2</v>
@@ -5379,13 +5137,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>434</v>
+        <v>236</v>
       </c>
       <c r="B215" t="s">
-        <v>435</v>
+        <v>237</v>
       </c>
       <c r="C215" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D215">
         <v>2</v>
@@ -5393,13 +5151,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>436</v>
+        <v>246</v>
       </c>
       <c r="B216" t="s">
-        <v>437</v>
+        <v>247</v>
       </c>
       <c r="C216" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D216">
         <v>2</v>
@@ -5407,13 +5165,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>438</v>
+        <v>246</v>
       </c>
       <c r="B217" t="s">
-        <v>439</v>
+        <v>247</v>
       </c>
       <c r="C217" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="D217">
         <v>2</v>
@@ -5421,13 +5179,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B218" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C218" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="D218">
         <v>2</v>
@@ -5435,13 +5193,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>443</v>
-      </c>
-      <c r="B219" t="s">
-        <v>444</v>
+        <v>531</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>532</v>
       </c>
       <c r="C219" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D219">
         <v>2</v>
@@ -5449,10 +5207,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>445</v>
+        <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>446</v>
+        <v>219</v>
       </c>
       <c r="C220" t="s">
         <v>8</v>
@@ -5463,13 +5221,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="B221" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="C221" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D221">
         <v>2</v>
@@ -5477,13 +5235,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="B222" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="C222" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D222">
         <v>2</v>
@@ -5491,41 +5249,41 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>451</v>
+        <v>111</v>
       </c>
       <c r="B223" t="s">
-        <v>452</v>
+        <v>112</v>
       </c>
       <c r="C223" t="s">
-        <v>453</v>
+        <v>8</v>
       </c>
       <c r="D223">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>454</v>
+        <v>91</v>
       </c>
       <c r="B224" t="s">
-        <v>455</v>
+        <v>92</v>
       </c>
       <c r="C224" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D224">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>456</v>
+        <v>282</v>
       </c>
       <c r="B225" t="s">
-        <v>457</v>
+        <v>283</v>
       </c>
       <c r="C225" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D225">
         <v>2</v>
@@ -5533,13 +5291,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>458</v>
+        <v>282</v>
       </c>
       <c r="B226" t="s">
-        <v>459</v>
+        <v>383</v>
       </c>
       <c r="C226" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D226">
         <v>2</v>
@@ -5547,41 +5305,41 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>460</v>
+        <v>131</v>
       </c>
       <c r="B227" t="s">
-        <v>461</v>
+        <v>132</v>
       </c>
       <c r="C227" t="s">
         <v>8</v>
       </c>
       <c r="D227">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>462</v>
+        <v>93</v>
       </c>
       <c r="B228" t="s">
-        <v>463</v>
+        <v>94</v>
       </c>
       <c r="C228" t="s">
         <v>8</v>
       </c>
       <c r="D228">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>464</v>
+        <v>347</v>
       </c>
       <c r="B229" t="s">
-        <v>465</v>
+        <v>348</v>
       </c>
       <c r="C229" t="s">
-        <v>5</v>
+        <v>504</v>
       </c>
       <c r="D229">
         <v>2</v>
@@ -5589,13 +5347,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>466</v>
+        <v>226</v>
       </c>
       <c r="B230" t="s">
-        <v>467</v>
+        <v>227</v>
       </c>
       <c r="C230" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D230">
         <v>2</v>
@@ -5603,13 +5361,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="B231" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="C231" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D231">
         <v>2</v>
@@ -5617,13 +5375,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>470</v>
+        <v>404</v>
       </c>
       <c r="B232" t="s">
-        <v>471</v>
+        <v>405</v>
       </c>
       <c r="C232" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D232">
         <v>2</v>
@@ -5631,41 +5389,41 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>472</v>
+        <v>135</v>
       </c>
       <c r="B233" t="s">
-        <v>473</v>
+        <v>500</v>
       </c>
       <c r="C233" t="s">
         <v>8</v>
       </c>
       <c r="D233">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>474</v>
+        <v>13</v>
       </c>
       <c r="B234" t="s">
-        <v>475</v>
+        <v>14</v>
       </c>
       <c r="C234" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D234">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>248</v>
+        <v>482</v>
       </c>
       <c r="B235" t="s">
-        <v>249</v>
+        <v>483</v>
       </c>
       <c r="C235" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D235">
         <v>2</v>
@@ -5673,13 +5431,13 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="B236" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="C236" t="s">
-        <v>8</v>
+        <v>504</v>
       </c>
       <c r="D236">
         <v>2</v>
@@ -5687,13 +5445,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>478</v>
-      </c>
-      <c r="B237" t="s">
-        <v>479</v>
+        <v>540</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="C237" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D237">
         <v>2</v>
@@ -5701,13 +5459,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>480</v>
+        <v>42</v>
       </c>
       <c r="B238" t="s">
-        <v>481</v>
+        <v>43</v>
       </c>
       <c r="C238" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D238">
         <v>2</v>
@@ -5715,10 +5473,10 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>482</v>
-      </c>
-      <c r="B239" t="s">
-        <v>483</v>
+        <v>533</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>534</v>
       </c>
       <c r="C239" t="s">
         <v>8</v>
@@ -5743,13 +5501,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>486</v>
+        <v>192</v>
       </c>
       <c r="B241" t="s">
-        <v>487</v>
+        <v>193</v>
       </c>
       <c r="C241" t="s">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="D241">
         <v>2</v>
@@ -5757,13 +5515,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>488</v>
+        <v>284</v>
       </c>
       <c r="B242" t="s">
-        <v>420</v>
+        <v>285</v>
       </c>
       <c r="C242" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D242">
         <v>2</v>
@@ -5771,13 +5529,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>489</v>
+        <v>429</v>
       </c>
       <c r="B243" t="s">
-        <v>490</v>
+        <v>519</v>
       </c>
       <c r="C243" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D243">
         <v>2</v>
@@ -5785,13 +5543,13 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>491</v>
+        <v>182</v>
       </c>
       <c r="B244" t="s">
-        <v>492</v>
+        <v>183</v>
       </c>
       <c r="C244" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="D244">
         <v>2</v>
@@ -5799,10 +5557,10 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>264</v>
-      </c>
-      <c r="B245" t="s">
-        <v>467</v>
+        <v>558</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>559</v>
       </c>
       <c r="C245" t="s">
         <v>8</v>
@@ -5813,27 +5571,27 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>493</v>
+        <v>48</v>
       </c>
       <c r="B246" t="s">
-        <v>494</v>
+        <v>49</v>
       </c>
       <c r="C246" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D246">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>495</v>
+        <v>454</v>
       </c>
       <c r="B247" t="s">
-        <v>496</v>
+        <v>455</v>
       </c>
       <c r="C247" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D247">
         <v>2</v>
@@ -5841,69 +5599,69 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>497</v>
+        <v>260</v>
       </c>
       <c r="B248" t="s">
-        <v>498</v>
+        <v>261</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
       </c>
       <c r="D248">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>499</v>
+        <v>85</v>
       </c>
       <c r="B249" t="s">
-        <v>500</v>
+        <v>86</v>
       </c>
       <c r="C249" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="D249">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>501</v>
+        <v>105</v>
       </c>
       <c r="B250" t="s">
-        <v>502</v>
+        <v>106</v>
       </c>
       <c r="C250" t="s">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="D250">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>503</v>
+        <v>125</v>
       </c>
       <c r="B251" t="s">
-        <v>504</v>
+        <v>126</v>
       </c>
       <c r="C251" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="D251">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>234</v>
+        <v>477</v>
       </c>
       <c r="B252" t="s">
-        <v>235</v>
+        <v>478</v>
       </c>
       <c r="C252" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D252">
         <v>2</v>
@@ -5911,1448 +5669,442 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>505</v>
+        <v>146</v>
       </c>
       <c r="B253" t="s">
-        <v>506</v>
+        <v>147</v>
       </c>
       <c r="C253" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="D253">
         <v>2</v>
       </c>
     </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>53</v>
+      </c>
+      <c r="B254" t="s">
+        <v>54</v>
+      </c>
+      <c r="C254" t="s">
+        <v>34</v>
+      </c>
+      <c r="D254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>355</v>
+      </c>
+      <c r="B255" t="s">
+        <v>356</v>
+      </c>
+      <c r="C255" t="s">
+        <v>34</v>
+      </c>
+      <c r="D255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>59</v>
+      </c>
+      <c r="B256" t="s">
+        <v>60</v>
+      </c>
+      <c r="C256" t="s">
+        <v>8</v>
+      </c>
+      <c r="D256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>37</v>
+      </c>
+      <c r="B257" t="s">
+        <v>38</v>
+      </c>
+      <c r="C257" t="s">
+        <v>34</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>101</v>
+      </c>
+      <c r="B258" t="s">
+        <v>102</v>
+      </c>
+      <c r="C258" t="s">
+        <v>34</v>
+      </c>
+      <c r="D258">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>80</v>
+      </c>
+      <c r="B259" t="s">
+        <v>81</v>
+      </c>
+      <c r="C259" t="s">
+        <v>82</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>6</v>
+      </c>
+      <c r="B260" t="s">
+        <v>7</v>
+      </c>
+      <c r="C260" t="s">
+        <v>8</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>452</v>
+      </c>
+      <c r="B261" t="s">
+        <v>453</v>
+      </c>
+      <c r="C261" t="s">
+        <v>5</v>
+      </c>
+      <c r="D261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>30</v>
+      </c>
+      <c r="B262" t="s">
+        <v>31</v>
+      </c>
+      <c r="C262" t="s">
+        <v>5</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>294</v>
+      </c>
+      <c r="B263" t="s">
+        <v>295</v>
+      </c>
+      <c r="C263" t="s">
+        <v>8</v>
+      </c>
+      <c r="D263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>179</v>
+      </c>
+      <c r="B264" t="s">
+        <v>180</v>
+      </c>
+      <c r="C264" t="s">
+        <v>172</v>
+      </c>
+      <c r="D264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>439</v>
+      </c>
+      <c r="B265" t="s">
+        <v>440</v>
+      </c>
+      <c r="C265" t="s">
+        <v>8</v>
+      </c>
+      <c r="D265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>374</v>
+      </c>
+      <c r="B266" t="s">
+        <v>375</v>
+      </c>
+      <c r="C266" t="s">
+        <v>5</v>
+      </c>
+      <c r="D266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>119</v>
+      </c>
+      <c r="B267" t="s">
+        <v>120</v>
+      </c>
+      <c r="C267" t="s">
+        <v>34</v>
+      </c>
+      <c r="D267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>123</v>
+      </c>
+      <c r="B268" t="s">
+        <v>124</v>
+      </c>
+      <c r="C268" t="s">
+        <v>34</v>
+      </c>
+      <c r="D268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>121</v>
+      </c>
+      <c r="B269" t="s">
+        <v>122</v>
+      </c>
+      <c r="C269" t="s">
+        <v>8</v>
+      </c>
+      <c r="D269">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>70</v>
+      </c>
+      <c r="B270" t="s">
+        <v>71</v>
+      </c>
+      <c r="C270" t="s">
+        <v>67</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>248</v>
+      </c>
+      <c r="B271" t="s">
+        <v>249</v>
+      </c>
+      <c r="C271" t="s">
+        <v>8</v>
+      </c>
+      <c r="D271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>40</v>
+      </c>
+      <c r="B272" t="s">
+        <v>41</v>
+      </c>
+      <c r="C272" t="s">
+        <v>8</v>
+      </c>
+      <c r="D272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>468</v>
+      </c>
+      <c r="B273" t="s">
+        <v>469</v>
+      </c>
+      <c r="C273" t="s">
+        <v>34</v>
+      </c>
+      <c r="D273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>154</v>
+      </c>
+      <c r="B274" t="s">
+        <v>155</v>
+      </c>
+      <c r="C274" t="s">
+        <v>172</v>
+      </c>
+      <c r="D274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>160</v>
+      </c>
+      <c r="B275" t="s">
+        <v>161</v>
+      </c>
+      <c r="C275" t="s">
+        <v>172</v>
+      </c>
+      <c r="D275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>315</v>
+      </c>
+      <c r="B276" t="s">
+        <v>316</v>
+      </c>
+      <c r="C276" t="s">
+        <v>504</v>
+      </c>
+      <c r="D276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>198</v>
+      </c>
+      <c r="B277" t="s">
+        <v>199</v>
+      </c>
+      <c r="C277" t="s">
+        <v>172</v>
+      </c>
+      <c r="D277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>175</v>
+      </c>
+      <c r="B278" t="s">
+        <v>176</v>
+      </c>
+      <c r="C278" t="s">
+        <v>172</v>
+      </c>
+      <c r="D278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>470</v>
+      </c>
+      <c r="B279" t="s">
+        <v>471</v>
+      </c>
+      <c r="C279" t="s">
+        <v>8</v>
+      </c>
+      <c r="D279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>412</v>
+      </c>
+      <c r="B280" t="s">
+        <v>413</v>
+      </c>
+      <c r="C280" t="s">
+        <v>8</v>
+      </c>
+      <c r="D280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>329</v>
+      </c>
+      <c r="B281" t="s">
+        <v>330</v>
+      </c>
+      <c r="C281" t="s">
+        <v>8</v>
+      </c>
+      <c r="D281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>20</v>
+      </c>
+      <c r="B282" t="s">
+        <v>21</v>
+      </c>
+      <c r="C282" t="s">
+        <v>17</v>
+      </c>
+      <c r="D282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>26</v>
+      </c>
+      <c r="B283" t="s">
+        <v>27</v>
+      </c>
+      <c r="C283" t="s">
+        <v>8</v>
+      </c>
+      <c r="D283">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B177"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>509</v>
-      </c>
-      <c r="B3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>511</v>
-      </c>
-      <c r="B4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>215</v>
-      </c>
-      <c r="B9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>513</v>
-      </c>
-      <c r="B10" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>213</v>
-      </c>
-      <c r="B11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>312</v>
-      </c>
-      <c r="B14" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>515</v>
-      </c>
-      <c r="B15" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>517</v>
-      </c>
-      <c r="B16" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>519</v>
-      </c>
-      <c r="B17" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>521</v>
-      </c>
-      <c r="B18" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>522</v>
-      </c>
-      <c r="B19" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>228</v>
-      </c>
-      <c r="B20" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>524</v>
-      </c>
-      <c r="B21" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>526</v>
-      </c>
-      <c r="B22" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>254</v>
-      </c>
-      <c r="B23" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>370</v>
-      </c>
-      <c r="B24" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>530</v>
-      </c>
-      <c r="B25" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>532</v>
-      </c>
-      <c r="B26" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>534</v>
-      </c>
-      <c r="B27" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>536</v>
-      </c>
-      <c r="B28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>537</v>
-      </c>
-      <c r="B29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>270</v>
-      </c>
-      <c r="B30" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>268</v>
-      </c>
-      <c r="B31" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>538</v>
-      </c>
-      <c r="B32" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>226</v>
-      </c>
-      <c r="B33" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>540</v>
-      </c>
-      <c r="B34" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>310</v>
-      </c>
-      <c r="B35" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>308</v>
-      </c>
-      <c r="B36" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>542</v>
-      </c>
-      <c r="B37" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>266</v>
-      </c>
-      <c r="B38" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>299</v>
-      </c>
-      <c r="B39" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>304</v>
-      </c>
-      <c r="B40" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>306</v>
-      </c>
-      <c r="B41" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>544</v>
-      </c>
-      <c r="B42" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>546</v>
-      </c>
-      <c r="B43" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>548</v>
-      </c>
-      <c r="B44" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>549</v>
-      </c>
-      <c r="B45" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>550</v>
-      </c>
-      <c r="B46" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>552</v>
-      </c>
-      <c r="B48" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>553</v>
-      </c>
-      <c r="B49" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>554</v>
-      </c>
-      <c r="B50" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>556</v>
-      </c>
-      <c r="B51" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>558</v>
-      </c>
-      <c r="B52" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>559</v>
-      </c>
-      <c r="B53" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>561</v>
-      </c>
-      <c r="B54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>562</v>
-      </c>
-      <c r="B55" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>563</v>
-      </c>
-      <c r="B56" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>332</v>
-      </c>
-      <c r="B58" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>564</v>
-      </c>
-      <c r="B59" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>220</v>
-      </c>
-      <c r="B60" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>565</v>
-      </c>
-      <c r="B61" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>566</v>
-      </c>
-      <c r="B62" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>218</v>
-      </c>
-      <c r="B63" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>275</v>
-      </c>
-      <c r="B64" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>568</v>
-      </c>
-      <c r="B65" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>262</v>
-      </c>
-      <c r="B66" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>368</v>
-      </c>
-      <c r="B67" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>570</v>
-      </c>
-      <c r="B68" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>372</v>
-      </c>
-      <c r="B69" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>572</v>
-      </c>
-      <c r="B70" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>213</v>
-      </c>
-      <c r="B71" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>364</v>
-      </c>
-      <c r="B72" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>360</v>
-      </c>
-      <c r="B73" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>314</v>
-      </c>
-      <c r="B74" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>366</v>
-      </c>
-      <c r="B75" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>358</v>
-      </c>
-      <c r="B76" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>356</v>
-      </c>
-      <c r="B77" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>574</v>
-      </c>
-      <c r="B78" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>264</v>
-      </c>
-      <c r="B79" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>576</v>
-      </c>
-      <c r="B80" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>578</v>
-      </c>
-      <c r="B81" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>140</v>
-      </c>
-      <c r="B82" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>580</v>
-      </c>
-      <c r="B83" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>581</v>
-      </c>
-      <c r="B84" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>15</v>
-      </c>
-      <c r="B85" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>582</v>
-      </c>
-      <c r="B86" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>181</v>
-      </c>
-      <c r="B87" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>584</v>
-      </c>
-      <c r="B88" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>586</v>
-      </c>
-      <c r="B89" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>588</v>
-      </c>
-      <c r="B90" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>590</v>
-      </c>
-      <c r="B91" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>592</v>
-      </c>
-      <c r="B92" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>158</v>
-      </c>
-      <c r="B93" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>156</v>
-      </c>
-      <c r="B94" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>472</v>
-      </c>
-      <c r="B95" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>334</v>
-      </c>
-      <c r="B96" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>336</v>
-      </c>
-      <c r="B97" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>596</v>
-      </c>
-      <c r="B98" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>598</v>
-      </c>
-      <c r="B99" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>600</v>
-      </c>
-      <c r="B100" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>49</v>
-      </c>
-      <c r="B101" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>248</v>
-      </c>
-      <c r="B102" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>274</v>
-      </c>
-      <c r="B103" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>211</v>
-      </c>
-      <c r="B104" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>208</v>
-      </c>
-      <c r="B105" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>281</v>
-      </c>
-      <c r="B106" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>602</v>
-      </c>
-      <c r="B107" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>604</v>
-      </c>
-      <c r="B108" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>606</v>
-      </c>
-      <c r="B109" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>608</v>
-      </c>
-      <c r="B110" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>610</v>
-      </c>
-      <c r="B111" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>224</v>
-      </c>
-      <c r="B112" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>206</v>
-      </c>
-      <c r="B113" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>37</v>
-      </c>
-      <c r="B114" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>612</v>
-      </c>
-      <c r="B115" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>614</v>
-      </c>
-      <c r="B116" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>279</v>
-      </c>
-      <c r="B117" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>260</v>
-      </c>
-      <c r="B118" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>616</v>
-      </c>
-      <c r="B119" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>66</v>
-      </c>
-      <c r="B120" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>69</v>
-      </c>
-      <c r="B121" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>71</v>
-      </c>
-      <c r="B122" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>73</v>
-      </c>
-      <c r="B123" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>75</v>
-      </c>
-      <c r="B124" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>77</v>
-      </c>
-      <c r="B125" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>79</v>
-      </c>
-      <c r="B126" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>81</v>
-      </c>
-      <c r="B127" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>84</v>
-      </c>
-      <c r="B128" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>86</v>
-      </c>
-      <c r="B129" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>88</v>
-      </c>
-      <c r="B130" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>90</v>
-      </c>
-      <c r="B131" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>92</v>
-      </c>
-      <c r="B132" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>94</v>
-      </c>
-      <c r="B133" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>96</v>
-      </c>
-      <c r="B134" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>98</v>
-      </c>
-      <c r="B135" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>100</v>
-      </c>
-      <c r="B136" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>301</v>
-      </c>
-      <c r="B137" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>617</v>
-      </c>
-      <c r="B138" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>619</v>
-      </c>
-      <c r="B139" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>621</v>
-      </c>
-      <c r="B140" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>622</v>
-      </c>
-      <c r="B141" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>623</v>
-      </c>
-      <c r="B142" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>625</v>
-      </c>
-      <c r="B143" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>626</v>
-      </c>
-      <c r="B144" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>627</v>
-      </c>
-      <c r="B145" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>629</v>
-      </c>
-      <c r="B146" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>630</v>
-      </c>
-      <c r="B147" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>632</v>
-      </c>
-      <c r="B148" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>633</v>
-      </c>
-      <c r="B149" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>634</v>
-      </c>
-      <c r="B150" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>154</v>
-      </c>
-      <c r="B151" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>148</v>
-      </c>
-      <c r="B152" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>635</v>
-      </c>
-      <c r="B153" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>637</v>
-      </c>
-      <c r="B154" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>639</v>
-      </c>
-      <c r="B155" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>640</v>
-      </c>
-      <c r="B156" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>642</v>
-      </c>
-      <c r="B157" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>644</v>
-      </c>
-      <c r="B158" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>646</v>
-      </c>
-      <c r="B159" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>617</v>
-      </c>
-      <c r="B160" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>370</v>
-      </c>
-      <c r="B161" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>254</v>
-      </c>
-      <c r="B162" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>277</v>
-      </c>
-      <c r="B163" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>650</v>
-      </c>
-      <c r="B164" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>373</v>
-      </c>
-      <c r="B165" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>346</v>
-      </c>
-      <c r="B166" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>652</v>
-      </c>
-      <c r="B167" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>344</v>
-      </c>
-      <c r="B168" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>162</v>
-      </c>
-      <c r="B169" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>350</v>
-      </c>
-      <c r="B170" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>352</v>
-      </c>
-      <c r="B171" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>354</v>
-      </c>
-      <c r="B172" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>248</v>
-      </c>
-      <c r="B173" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>316</v>
-      </c>
-      <c r="B174" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>272</v>
-      </c>
-      <c r="B175" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>653</v>
-      </c>
-      <c r="B176" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>654</v>
-      </c>
-      <c r="B177" t="s">
-        <v>655</v>
-      </c>
-    </row>
-  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D283">
+    <sortCondition ref="A2:A283"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>